--- a/geekshop/Оптимизация.xlsx
+++ b/geekshop/Оптимизация.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="functional_testing" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Stress_testing" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Stress_testing2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Optimized" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve">Адрес</t>
   </si>
@@ -37,22 +40,10 @@
     <t xml:space="preserve">'/'  </t>
   </si>
   <si>
-    <t xml:space="preserve">1,74мс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,75мс</t>
-  </si>
-  <si>
     <t xml:space="preserve">'/products/'</t>
   </si>
   <si>
-    <t xml:space="preserve">3,48мс</t>
-  </si>
-  <si>
     <t xml:space="preserve">'/products/category/1/'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,51мс</t>
   </si>
   <si>
     <r>
@@ -91,29 +82,130 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4,35мс</t>
-  </si>
-  <si>
     <t xml:space="preserve">'/order/'  </t>
   </si>
   <si>
-    <t xml:space="preserve">2,48мс</t>
-  </si>
-  <si>
     <t xml:space="preserve">'/order/update/'  </t>
   </si>
   <si>
-    <t xml:space="preserve">15,75мс</t>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Параметры запуска: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo-Regular"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">siege -f /home/django/Django/geekshop/u2.txt -d0 -r15 -c20</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Переходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время теста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транзакций/сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время отклика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'/cart/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'/order/update/7/'  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-R25 -C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-r50 -c50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-R15 -C70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-R10 -C100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-r10 -c150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-r12 -c200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-r25 -c120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число переходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступность сервера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время теста, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время отклика, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запросов в секунду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропускная способность, МБ/сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласованность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удачных транзакций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неудачных транзакций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самая долгая транзакция, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8(13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12(81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(74)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +231,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo-Regular"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,12 +264,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -182,12 +326,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,201 +416,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C5" s="3" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
+      <c r="B8" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>66.74</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>74</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -413,4 +612,601 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>91.63</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>4129</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>180.54</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>65.37</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>73.73</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>732.08</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>15406</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>6510</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>12600</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>99.39</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>128.18</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>523.17</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>152.05</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>148.26</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>220.97</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>348.8</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>600.35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>40.73</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>68.29</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>145.41</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>194.67</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>118.42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>3562</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>14106</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>6020</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>11200</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>13584</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>60.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>